--- a/Conception/tableau_de_bord.xlsx
+++ b/Conception/tableau_de_bord.xlsx
@@ -42,7 +42,7 @@
     <t xml:space="preserve">Cas d'utilisation</t>
   </si>
   <si>
-    <t xml:space="preserve">Léo, Gauthier, Maxime,Julien</t>
+    <t xml:space="preserve">Léo, Gauthier, Maxime, Julien</t>
   </si>
   <si>
     <t xml:space="preserve">Note de cadrage</t>
@@ -248,13 +248,13 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4736842105263"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4655870445344"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
